--- a/biology/Zoologie/Ani_des_palétuviers/Ani_des_palétuviers.xlsx
+++ b/biology/Zoologie/Ani_des_palétuviers/Ani_des_palétuviers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ani_des_pal%C3%A9tuviers</t>
+          <t>Ani_des_palétuviers</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Crotophaga major
 L'Ani des palétuviers (Crotophaga major), également appelé grand ani, est une espèce d'oiseau de la famille des Cuculidae. C'est une espèce qui se reproduit depuis Panama et  Trinité au nord en passant par l'Amérique du Sud tropicale jusqu'au nord de l'Argentine. Il est parfois appelé le coucou noir.
